--- a/data/trans_dic/P19_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19_2_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se siente bien consigo mismo (en desacuerdo, muy en desacuerdo)</t>
+          <t>Población que se siente bien consigo mismo (en desacuerdo, muy en desacuerdo) (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>95,63%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>96,13%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>96,67%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>92,82%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>89,13%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>93,76%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>90,95%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>93,24%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>85,83%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>92,17%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>94,88%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>93,68%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>93,04%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>92,41%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,97; 13,87</t>
+          <t>84,62; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,89</t>
+          <t>86,37; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 8,31</t>
+          <t>88,69; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,75; 14,68</t>
+          <t>82,24; 98,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,21; 14,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,31; 15,04</t>
+          <t>78,18; 96,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,08; 11,74</t>
+          <t>85,38; 98,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,74; 9,49</t>
+          <t>81,29; 96,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,18; 11,45</t>
+          <t>83,93; 98,18</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,7; 8,9</t>
+          <t>71,63; 94,6</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,51; 8,25</t>
+          <t>85,17; 96,3</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,9; 9,47</t>
+          <t>89,71; 98,25</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>87,71; 97,4</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>86,6; 97,26</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>83,42; 97,43</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>95,59%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>95,61%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>94,8%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>94,11%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>91,82%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>88,79%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>90,01%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>92,07%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>90,64%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>93,4%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>92,09%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>92,7%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>93,43%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>92,43%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>92,59%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,82; 9,6</t>
+          <t>91,92; 98,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,43; 5,77</t>
+          <t>91,02; 98,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,7; 6,18</t>
+          <t>89,14; 97,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,21; 8,13</t>
+          <t>88,67; 97,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,42; 17,46</t>
+          <t>85,49; 95,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,72; 13,3</t>
+          <t>83,04; 92,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,85; 9,34</t>
+          <t>84,63; 93,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,76; 12,3</t>
+          <t>86,68; 95,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,67; 12,46</t>
+          <t>85,55; 94,2</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,03; 8,42</t>
+          <t>89,18; 96,36</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 6,88</t>
+          <t>88,82; 94,59</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,69; 9,02</t>
+          <t>89,4; 95,34</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>90,34; 95,71</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>88,98; 94,92</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>88,92; 95,08</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>93,42%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>97,02%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>94,69%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>94,8%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>92,09%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>88,91%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>94,8%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>92,52%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>92,02%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>90,8%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>90,91%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>95,77%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>93,5%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>93,29%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>91,4%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,08; 8,72</t>
+          <t>86,97; 96,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 6,15</t>
+          <t>92,28; 99,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,14; 8,49</t>
+          <t>88,78; 98,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 8,12</t>
+          <t>88,56; 97,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,03; 16,26</t>
+          <t>85,85; 96,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,22; 8,7</t>
+          <t>83,29; 92,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,28; 10,34</t>
+          <t>90,45; 97,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,63; 12,65</t>
+          <t>87,3; 95,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,11; 11,46</t>
+          <t>86,76; 95,41</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,92; 6,73</t>
+          <t>85,82; 94,51</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 8,31</t>
+          <t>87,21; 94,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,6; 9,35</t>
+          <t>92,94; 97,58</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>90,02; 95,99</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>89,94; 95,78</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>87,95; 94,45</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1274,1725 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,76; 7,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,65; 4,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,36; 5,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,15; 6,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,74; 14,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,68; 10,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,65; 8,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,91; 10,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,09; 10,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,06; 6,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,92; 6,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,02; 7,75</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>94,77%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>96,21%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>95,02%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>94,17%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>93,3%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>88,89%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>92,51%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>92,1%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>91,57%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>91,04%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>91,63%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>94,22%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>93,49%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>92,84%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>92,14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>91,67; 96,89</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>93,56; 98,01</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>91,96; 97,06</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>90,75; 96,16</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>89,27; 95,98</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>85,92; 92,01</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>89,57; 94,87</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>89,11; 94,57</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>88,69; 93,91</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>87,63; 93,81</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>89,59; 93,68</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>92,5; 95,74</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>91,32; 95,15</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>90,67; 94,44</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>89,8; 94,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se siente bien consigo mismo (en desacuerdo, muy en desacuerdo) (tasa de respuesta: 99,64%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>98832</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>121792</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>101952</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>104058</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>177635</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>105000</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>133588</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>105043</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>112422</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>175985</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>203832</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>255380</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>206996</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>216481</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>353620</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>87457; 103347</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>109422; 126693</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>93529; 105459</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>92200; 110234</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>92101; 113406</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>121639; 140350</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>93895; 111571</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>101194; 118374</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>146862; 193951</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>188356; 212971</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>241468; 264468</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>193798; 215216</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>201501; 226295</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>319217; 372820</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>303.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>305.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>308.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>304.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>305.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>349880</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>410611</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>356700</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>375956</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>472732</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>345043</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>418074</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>348689</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>340102</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>462032</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>694923</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>828684</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>705389</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>716057</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>934764</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>336427; 359488</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>390928; 421272</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>335407; 367489</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>354240; 388878</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>440118; 492999</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>322708; 360916</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>393104; 435723</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>328291; 361448</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>320977; 353437</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>441151; 476686</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>670240; 713817</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>799194; 852285</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>682027; 722633</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>689341; 735367</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>897705; 959854</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>269.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>269.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>263.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>267097</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>322959</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>267388</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>261061</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>325318</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>317463</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>406142</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>316982</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>301301</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>359741</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>584561</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>729101</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>584370</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>562363</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>685059</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>248670; 277323</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>307196; 330577</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>250689; 277100</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>243885; 269329</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>303303; 340928</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>297417; 331073</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>387481; 418209</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>299120; 328239</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>284075; 312402</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>340014; 374435</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>560774; 604855</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>707524; 742873</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>562623; 599903</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>542152; 577380</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>659185; 707898</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>295.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>297.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>295.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>291.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>290.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>353.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>368.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>366.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>363.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>360.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>648.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>665.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>661.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>654.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>650.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>715809</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>855362</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>726041</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>741076</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>975685</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>767506</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>957803</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>770714</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>753825</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>997758</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1483315</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1813165</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1496755</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1494901</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1973443</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>692388; 731809</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>831839; 871328</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>702703; 741666</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>714164; 756759</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>933504; 1003745</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>741869; 794488</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>927325; 982239</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>745755; 791412</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>730100; 773127</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>960373; 1028072</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1450246; 1516430</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1780031; 1842444</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>1461979; 1523317</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1460055; 1520697</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>1923296; 2018899</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
